--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Thbs1-Ptprj.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Thbs1-Ptprj.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.5755121551632</v>
+        <v>122.253015</v>
       </c>
       <c r="H2">
-        <v>28.5755121551632</v>
+        <v>366.759045</v>
       </c>
       <c r="I2">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J2">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.62486336976872</v>
+        <v>10.50918</v>
       </c>
       <c r="N2">
-        <v>2.62486336976872</v>
+        <v>31.52754</v>
       </c>
       <c r="O2">
-        <v>0.03525110994992871</v>
+        <v>0.1224541750083835</v>
       </c>
       <c r="P2">
-        <v>0.03525110994992871</v>
+        <v>0.1224541750083835</v>
       </c>
       <c r="Q2">
-        <v>75.0068151284687</v>
+        <v>1284.7789401777</v>
       </c>
       <c r="R2">
-        <v>75.0068151284687</v>
+        <v>11563.0104615993</v>
       </c>
       <c r="S2">
-        <v>0.002663488828931431</v>
+        <v>0.02435171927480829</v>
       </c>
       <c r="T2">
-        <v>0.002663488828931431</v>
+        <v>0.02435171927480829</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.5755121551632</v>
+        <v>122.253015</v>
       </c>
       <c r="H3">
-        <v>28.5755121551632</v>
+        <v>366.759045</v>
       </c>
       <c r="I3">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J3">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.11740931178905</v>
+        <v>5.176377666666667</v>
       </c>
       <c r="N3">
-        <v>5.11740931178905</v>
+        <v>15.529133</v>
       </c>
       <c r="O3">
-        <v>0.06872523742999986</v>
+        <v>0.06031574839364136</v>
       </c>
       <c r="P3">
-        <v>0.06872523742999986</v>
+        <v>0.06031574839364136</v>
       </c>
       <c r="Q3">
-        <v>146.2325919919734</v>
+        <v>632.8277765286651</v>
       </c>
       <c r="R3">
-        <v>146.2325919919734</v>
+        <v>5695.449988757986</v>
       </c>
       <c r="S3">
-        <v>0.005192713149187946</v>
+        <v>0.01199462715445485</v>
       </c>
       <c r="T3">
-        <v>0.005192713149187946</v>
+        <v>0.01199462715445485</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.5755121551632</v>
+        <v>122.253015</v>
       </c>
       <c r="H4">
-        <v>28.5755121551632</v>
+        <v>366.759045</v>
       </c>
       <c r="I4">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J4">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>62.8033032984766</v>
+        <v>66.063113</v>
       </c>
       <c r="N4">
-        <v>62.8033032984766</v>
+        <v>198.189339</v>
       </c>
       <c r="O4">
-        <v>0.8434291000786024</v>
+        <v>0.7697749968028538</v>
       </c>
       <c r="P4">
-        <v>0.8434291000786024</v>
+        <v>0.769774996802854</v>
       </c>
       <c r="Q4">
-        <v>1794.636556790019</v>
+        <v>8076.414744535696</v>
       </c>
       <c r="R4">
-        <v>1794.636556790019</v>
+        <v>72687.73270082126</v>
       </c>
       <c r="S4">
-        <v>0.06372746813493145</v>
+        <v>0.1530804860318253</v>
       </c>
       <c r="T4">
-        <v>0.06372746813493145</v>
+        <v>0.1530804860318254</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.5755121551632</v>
+        <v>122.253015</v>
       </c>
       <c r="H5">
-        <v>28.5755121551632</v>
+        <v>366.759045</v>
       </c>
       <c r="I5">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J5">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.91628844060718</v>
+        <v>4.072658</v>
       </c>
       <c r="N5">
-        <v>3.91628844060718</v>
+        <v>12.217974</v>
       </c>
       <c r="O5">
-        <v>0.05259455254146909</v>
+        <v>0.04745507979512132</v>
       </c>
       <c r="P5">
-        <v>0.05259455254146909</v>
+        <v>0.04745507979512132</v>
       </c>
       <c r="Q5">
-        <v>111.9099479376956</v>
+        <v>497.89471956387</v>
       </c>
       <c r="R5">
-        <v>111.9099479376956</v>
+        <v>4481.052476074829</v>
       </c>
       <c r="S5">
-        <v>0.003973917512266402</v>
+        <v>0.009437103971794392</v>
       </c>
       <c r="T5">
-        <v>0.003973917512266402</v>
+        <v>0.00943710397179439</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>131.336294436091</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H6">
-        <v>131.336294436091</v>
+        <v>397.634285</v>
       </c>
       <c r="I6">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="J6">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.62486336976872</v>
+        <v>10.50918</v>
       </c>
       <c r="N6">
-        <v>2.62486336976872</v>
+        <v>31.52754</v>
       </c>
       <c r="O6">
-        <v>0.03525110994992871</v>
+        <v>0.1224541750083835</v>
       </c>
       <c r="P6">
-        <v>0.03525110994992871</v>
+        <v>0.1224541750083835</v>
       </c>
       <c r="Q6">
-        <v>344.7398283864546</v>
+        <v>1392.9367584121</v>
       </c>
       <c r="R6">
-        <v>344.7398283864546</v>
+        <v>12536.4308257089</v>
       </c>
       <c r="S6">
-        <v>0.01224169670745766</v>
+        <v>0.02640174418154871</v>
       </c>
       <c r="T6">
-        <v>0.01224169670745766</v>
+        <v>0.02640174418154871</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>131.336294436091</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H7">
-        <v>131.336294436091</v>
+        <v>397.634285</v>
       </c>
       <c r="I7">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="J7">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.11740931178905</v>
+        <v>5.176377666666667</v>
       </c>
       <c r="N7">
-        <v>5.11740931178905</v>
+        <v>15.529133</v>
       </c>
       <c r="O7">
-        <v>0.06872523742999986</v>
+        <v>0.06031574839364136</v>
       </c>
       <c r="P7">
-        <v>0.06872523742999986</v>
+        <v>0.06031574839364136</v>
       </c>
       <c r="Q7">
-        <v>672.1015761231205</v>
+        <v>686.1017441249895</v>
       </c>
       <c r="R7">
-        <v>672.1015761231205</v>
+        <v>6174.915697124905</v>
       </c>
       <c r="S7">
-        <v>0.02386629850694322</v>
+        <v>0.01300438273418244</v>
       </c>
       <c r="T7">
-        <v>0.02386629850694322</v>
+        <v>0.01300438273418244</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>131.336294436091</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H8">
-        <v>131.336294436091</v>
+        <v>397.634285</v>
       </c>
       <c r="I8">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="J8">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>62.8033032984766</v>
+        <v>66.063113</v>
       </c>
       <c r="N8">
-        <v>62.8033032984766</v>
+        <v>198.189339</v>
       </c>
       <c r="O8">
-        <v>0.8434291000786024</v>
+        <v>0.7697749968028538</v>
       </c>
       <c r="P8">
-        <v>0.8434291000786024</v>
+        <v>0.769774996802854</v>
       </c>
       <c r="Q8">
-        <v>8248.353133567849</v>
+        <v>8756.319567543069</v>
       </c>
       <c r="R8">
-        <v>8248.353133567849</v>
+        <v>78806.87610788761</v>
       </c>
       <c r="S8">
-        <v>0.2928986704836249</v>
+        <v>0.1659674122303305</v>
       </c>
       <c r="T8">
-        <v>0.2928986704836249</v>
+        <v>0.1659674122303306</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>131.336294436091</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H9">
-        <v>131.336294436091</v>
+        <v>397.634285</v>
       </c>
       <c r="I9">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="J9">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.91628844060718</v>
+        <v>4.072658</v>
       </c>
       <c r="N9">
-        <v>3.91628844060718</v>
+        <v>12.217974</v>
       </c>
       <c r="O9">
-        <v>0.05259455254146909</v>
+        <v>0.04745507979512132</v>
       </c>
       <c r="P9">
-        <v>0.05259455254146909</v>
+        <v>0.04745507979512132</v>
       </c>
       <c r="Q9">
-        <v>514.3508117322443</v>
+        <v>539.8094839598433</v>
       </c>
       <c r="R9">
-        <v>514.3508117322443</v>
+        <v>4858.285355638589</v>
       </c>
       <c r="S9">
-        <v>0.0182645755436252</v>
+        <v>0.01023155704393091</v>
       </c>
       <c r="T9">
-        <v>0.0182645755436252</v>
+        <v>0.01023155704393091</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>178.507776328152</v>
+        <v>320.0894206666666</v>
       </c>
       <c r="H10">
-        <v>178.507776328152</v>
+        <v>960.2682619999999</v>
       </c>
       <c r="I10">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="J10">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.62486336976872</v>
+        <v>10.50918</v>
       </c>
       <c r="N10">
-        <v>2.62486336976872</v>
+        <v>31.52754</v>
       </c>
       <c r="O10">
-        <v>0.03525110994992871</v>
+        <v>0.1224541750083835</v>
       </c>
       <c r="P10">
-        <v>0.03525110994992871</v>
+        <v>0.1224541750083835</v>
       </c>
       <c r="Q10">
-        <v>468.558523302634</v>
+        <v>3363.877337881719</v>
       </c>
       <c r="R10">
-        <v>468.558523302634</v>
+        <v>30274.89604093548</v>
       </c>
       <c r="S10">
-        <v>0.01663849332063557</v>
+        <v>0.06375898144443051</v>
       </c>
       <c r="T10">
-        <v>0.01663849332063557</v>
+        <v>0.06375898144443051</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>178.507776328152</v>
+        <v>320.0894206666666</v>
       </c>
       <c r="H11">
-        <v>178.507776328152</v>
+        <v>960.2682619999999</v>
       </c>
       <c r="I11">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="J11">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.11740931178905</v>
+        <v>5.176377666666667</v>
       </c>
       <c r="N11">
-        <v>5.11740931178905</v>
+        <v>15.529133</v>
       </c>
       <c r="O11">
-        <v>0.06872523742999986</v>
+        <v>0.06031574839364136</v>
       </c>
       <c r="P11">
-        <v>0.06872523742999986</v>
+        <v>0.06031574839364136</v>
       </c>
       <c r="Q11">
-        <v>913.4973568084421</v>
+        <v>1656.903728475205</v>
       </c>
       <c r="R11">
-        <v>913.4973568084421</v>
+        <v>14912.13355627685</v>
       </c>
       <c r="S11">
-        <v>0.03243825245679841</v>
+        <v>0.0314049780856703</v>
       </c>
       <c r="T11">
-        <v>0.03243825245679841</v>
+        <v>0.0314049780856703</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>178.507776328152</v>
+        <v>320.0894206666666</v>
       </c>
       <c r="H12">
-        <v>178.507776328152</v>
+        <v>960.2682619999999</v>
       </c>
       <c r="I12">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="J12">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>62.8033032984766</v>
+        <v>66.063113</v>
       </c>
       <c r="N12">
-        <v>62.8033032984766</v>
+        <v>198.189339</v>
       </c>
       <c r="O12">
-        <v>0.8434291000786024</v>
+        <v>0.7697749968028538</v>
       </c>
       <c r="P12">
-        <v>0.8434291000786024</v>
+        <v>0.769774996802854</v>
       </c>
       <c r="Q12">
-        <v>11210.87801787355</v>
+        <v>21146.10356760653</v>
       </c>
       <c r="R12">
-        <v>11210.87801787355</v>
+        <v>190314.9321084588</v>
       </c>
       <c r="S12">
-        <v>0.3980978036725868</v>
+        <v>0.4008035637345936</v>
       </c>
       <c r="T12">
-        <v>0.3980978036725868</v>
+        <v>0.4008035637345937</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>178.507776328152</v>
+        <v>320.0894206666666</v>
       </c>
       <c r="H13">
-        <v>178.507776328152</v>
+        <v>960.2682619999999</v>
       </c>
       <c r="I13">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="J13">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.91628844060718</v>
+        <v>4.072658</v>
       </c>
       <c r="N13">
-        <v>3.91628844060718</v>
+        <v>12.217974</v>
       </c>
       <c r="O13">
-        <v>0.05259455254146909</v>
+        <v>0.04745507979512132</v>
       </c>
       <c r="P13">
-        <v>0.05259455254146909</v>
+        <v>0.04745507979512132</v>
       </c>
       <c r="Q13">
-        <v>699.0879409924337</v>
+        <v>1303.614739793465</v>
       </c>
       <c r="R13">
-        <v>699.0879409924337</v>
+        <v>11732.53265814118</v>
       </c>
       <c r="S13">
-        <v>0.02482458318067285</v>
+        <v>0.02470873330283728</v>
       </c>
       <c r="T13">
-        <v>0.02482458318067285</v>
+        <v>0.02470873330283728</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>39.7755534428927</v>
+        <v>39.86989333333333</v>
       </c>
       <c r="H14">
-        <v>39.7755534428927</v>
+        <v>119.60968</v>
       </c>
       <c r="I14">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="J14">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.62486336976872</v>
+        <v>10.50918</v>
       </c>
       <c r="N14">
-        <v>2.62486336976872</v>
+        <v>31.52754</v>
       </c>
       <c r="O14">
-        <v>0.03525110994992871</v>
+        <v>0.1224541750083835</v>
       </c>
       <c r="P14">
-        <v>0.03525110994992871</v>
+        <v>0.1224541750083835</v>
       </c>
       <c r="Q14">
-        <v>104.4053932445271</v>
+        <v>418.9998856207999</v>
       </c>
       <c r="R14">
-        <v>104.4053932445271</v>
+        <v>3770.9989705872</v>
       </c>
       <c r="S14">
-        <v>0.003707431092904055</v>
+        <v>0.007941730107595987</v>
       </c>
       <c r="T14">
-        <v>0.003707431092904055</v>
+        <v>0.007941730107595987</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>39.7755534428927</v>
+        <v>39.86989333333333</v>
       </c>
       <c r="H15">
-        <v>39.7755534428927</v>
+        <v>119.60968</v>
       </c>
       <c r="I15">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="J15">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.11740931178905</v>
+        <v>5.176377666666667</v>
       </c>
       <c r="N15">
-        <v>5.11740931178905</v>
+        <v>15.529133</v>
       </c>
       <c r="O15">
-        <v>0.06872523742999986</v>
+        <v>0.06031574839364136</v>
       </c>
       <c r="P15">
-        <v>0.06872523742999986</v>
+        <v>0.06031574839364136</v>
       </c>
       <c r="Q15">
-        <v>203.5477875702221</v>
+        <v>206.3816254230489</v>
       </c>
       <c r="R15">
-        <v>203.5477875702221</v>
+        <v>1857.43462880744</v>
       </c>
       <c r="S15">
-        <v>0.00722797331707027</v>
+        <v>0.003911760419333776</v>
       </c>
       <c r="T15">
-        <v>0.00722797331707027</v>
+        <v>0.003911760419333776</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>39.7755534428927</v>
+        <v>39.86989333333333</v>
       </c>
       <c r="H16">
-        <v>39.7755534428927</v>
+        <v>119.60968</v>
       </c>
       <c r="I16">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="J16">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>62.8033032984766</v>
+        <v>66.063113</v>
       </c>
       <c r="N16">
-        <v>62.8033032984766</v>
+        <v>198.189339</v>
       </c>
       <c r="O16">
-        <v>0.8434291000786024</v>
+        <v>0.7697749968028538</v>
       </c>
       <c r="P16">
-        <v>0.8434291000786024</v>
+        <v>0.769774996802854</v>
       </c>
       <c r="Q16">
-        <v>2498.036146738756</v>
+        <v>2633.929268577946</v>
       </c>
       <c r="R16">
-        <v>2498.036146738756</v>
+        <v>23705.36341720152</v>
       </c>
       <c r="S16">
-        <v>0.0887051577874591</v>
+        <v>0.04992353480610436</v>
       </c>
       <c r="T16">
-        <v>0.0887051577874591</v>
+        <v>0.04992353480610438</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>39.7755534428927</v>
+        <v>39.86989333333333</v>
       </c>
       <c r="H17">
-        <v>39.7755534428927</v>
+        <v>119.60968</v>
       </c>
       <c r="I17">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="J17">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.91628844060718</v>
+        <v>4.072658</v>
       </c>
       <c r="N17">
-        <v>3.91628844060718</v>
+        <v>12.217974</v>
       </c>
       <c r="O17">
-        <v>0.05259455254146909</v>
+        <v>0.04745507979512132</v>
       </c>
       <c r="P17">
-        <v>0.05259455254146909</v>
+        <v>0.04745507979512132</v>
       </c>
       <c r="Q17">
-        <v>155.7725401671538</v>
+        <v>162.3764400431466</v>
       </c>
       <c r="R17">
-        <v>155.7725401671538</v>
+        <v>1461.38796038832</v>
       </c>
       <c r="S17">
-        <v>0.00553147630490463</v>
+        <v>0.003077685476558747</v>
       </c>
       <c r="T17">
-        <v>0.00553147630490463</v>
+        <v>0.003077685476558747</v>
       </c>
     </row>
   </sheetData>
